--- a/dataType/sequencing_report.xlsx
+++ b/dataType/sequencing_report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\dataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F9AAB-CE1D-476E-9D07-2B4DE0A0B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -44,15 +39,6 @@
     <t>participant_id</t>
   </si>
   <si>
-    <t>lab_sample_id</t>
-  </si>
-  <si>
-    <t>plate_key</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>delivery_id</t>
   </si>
   <si>
@@ -74,16 +60,25 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>integer</t>
+    <t>platekey</t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>associated_interpretation_request_id</t>
+  </si>
+  <si>
+    <t>data_format</t>
+  </si>
+  <si>
+    <t>delivery_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,19 +476,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -502,94 +497,103 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,6 +601,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A4BFB859250D564387E302C619C2B830" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3358efe9c84308ba6f2e847f630b7e6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6c6d246b-e97a-4623-bd89-8186b03da3b7" xmlns:ns4="ea07f7f8-ddfb-47c3-9e5e-d15868d4ccd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74007ff472514acf2ee0d02077f01870" ns3:_="" ns4:_="">
     <xsd:import namespace="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
@@ -813,22 +826,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82E1B9AE-36F0-46CF-96FA-BB44F4D07095}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CB4A39-E0B9-41A2-B386-002AACD02EB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -847,7 +859,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5752F03-985C-4B63-A688-C8CD3CC9AFD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -862,12 +874,4 @@
     <ds:schemaRef ds:uri="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82E1B9AE-36F0-46CF-96FA-BB44F4D07095}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>